--- a/downloaded_files/GENS004_Lecture-35975.xlsx
+++ b/downloaded_files/GENS004_Lecture-35975.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -115,6 +115,15 @@
   </x:si>
   <x:si>
     <x:t>ali kareem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد على السيد الجعيدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4240030</x:t>
@@ -296,7 +305,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -596,7 +605,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -999,9 +1008,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.8292595255</x:v>
+        <x:v>45935.8096519329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,16 +1035,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45914.9965059838</x:v>
+        <x:v>45928.8292595255</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45914.9965059838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.5184978356</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1157,9 +1166,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.5613604167</x:v>
+        <x:v>45919.5184978356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1182,16 +1193,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45914.9961963773</x:v>
+        <x:v>45928.5613604167</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9963054398</x:v>
+        <x:v>45914.9961963773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1240,6 +1249,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45914.9963054398</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35975.xlsx
+++ b/downloaded_files/GENS004_Lecture-35975.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -97,6 +97,12 @@
   </x:si>
   <x:si>
     <x:t>ABDEL RAHMAN GHAREB AHAMED MOHAMED HASANEIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
     <x:t>4250207</x:t>
@@ -305,7 +311,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -605,7 +611,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -944,11 +950,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45907.6758264699</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -971,16 +975,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9963873843</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1003,16 +1007,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45935.8096519329</x:v>
+        <x:v>45914.9963873843</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1035,14 +1039,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45928.8292595255</x:v>
+        <x:v>45935.8096519329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1070,11 +1076,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45914.9965059838</x:v>
+        <x:v>45928.8292595255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,16 +1101,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45914.9965059838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,16 +1133,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,16 +1165,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.5184978356</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1193,14 +1197,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45928.5613604167</x:v>
+        <x:v>45919.5184978356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,11 +1234,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45914.9961963773</x:v>
+        <x:v>45928.5613604167</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1255,16 +1259,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9963054398</x:v>
+        <x:v>45914.9961963773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1281,6 +1285,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45914.9963054398</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35975.xlsx
+++ b/downloaded_files/GENS004_Lecture-35975.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>عمار عماد حمدى محمد عدس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو احمد السيد محمد السيد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amr ahmed elsayed mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4240040</x:t>
@@ -311,7 +320,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -611,7 +620,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1110,7 +1119,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9965059838</x:v>
+        <x:v>45937.356175544</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45914.9965059838</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.5184978356</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1234,9 +1243,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.5613604167</x:v>
+        <x:v>45919.5184978356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1259,16 +1270,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45914.9961963773</x:v>
+        <x:v>45928.5613604167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9963054398</x:v>
+        <x:v>45914.9961963773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1317,6 +1326,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45914.9963054398</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
